--- a/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
+++ b/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Cupos</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +537,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -580,6 +590,11 @@
           <t>25</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -628,6 +643,11 @@
           <t>32</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -676,6 +696,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -724,6 +749,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -772,6 +802,11 @@
           <t>æ</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -820,6 +855,11 @@
           <t>33</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -868,6 +908,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -916,6 +961,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -964,6 +1014,11 @@
           <t>32</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1012,6 +1067,11 @@
           <t>33</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1060,6 +1120,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1108,6 +1173,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1156,6 +1226,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1204,6 +1279,11 @@
           <t>32</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1252,6 +1332,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1300,6 +1385,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1348,6 +1438,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1396,6 +1491,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1444,6 +1544,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1492,6 +1597,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1540,6 +1650,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1588,6 +1703,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1636,6 +1756,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1684,6 +1809,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1732,6 +1862,11 @@
           <t>42</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1780,6 +1915,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1828,6 +1968,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1876,6 +2021,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1924,6 +2074,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1972,22 +2127,27 @@
           <t>30</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>71087</v>
+        <v>70492</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELE - GCYCP</t>
+          <t>HEDS - M9A - ID</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5636</v>
+        <v>5906</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gestión de com, confl en proy</t>
+          <t xml:space="preserve"> Hab de equipo en desar de soft</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1997,37 +2157,42 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
+          <t>8 / 32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(4) A DISTANCIA</t>
+          <t>(6) HYFLEX</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>æ</t>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>70492</v>
+        <v>70493</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HEDS - M9A - ID</t>
+          <t>HEDS - N9A - ID</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2045,12 +2210,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8 / 32</t>
+          <t>20 / 32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2060,30 +2225,35 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>32</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>70493</v>
+        <v>70283</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HEDS - N9A - ID</t>
+          <t>ISA1 - M6A - AN</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5906</v>
+        <v>7674</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hab de equipo en desar de soft</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2093,12 +2263,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20 / 32</t>
+          <t>17 / 30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2108,22 +2278,27 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>70283</v>
+        <v>70449</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ISA1 - M6A - AN</t>
+          <t>ISA1 - M6A - ID</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2146,7 +2321,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17 / 30</t>
+          <t>29 / 30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2156,22 +2331,27 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>70449</v>
+        <v>70454</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ISA1 - M6A - ID</t>
+          <t>ISA1 - M6B / D - ID</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2194,7 +2374,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29 / 30</t>
+          <t>27 / 30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2204,22 +2384,27 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>70454</v>
+        <v>70459</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ISA1 - M6B / D - ID</t>
+          <t>ISA1 - M6C - ID</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2242,7 +2427,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>27 / 30</t>
+          <t>28 / 30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2252,22 +2437,27 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>70459</v>
+        <v>70288</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ISA1 - M6C - ID</t>
+          <t>ISA1 - N6A - AN</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2285,12 +2475,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28 / 30</t>
+          <t>26 / 30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2300,22 +2490,27 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>70288</v>
+        <v>70470</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - AN</t>
+          <t>ISA1 - N6A - ID</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2338,7 +2533,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26 / 30</t>
+          <t>22 / 30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2348,30 +2543,35 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>30</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>70470</v>
+        <v>70476</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - ID</t>
+          <t>ISA2 - N7A/B- ID</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7674</v>
+        <v>7675</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2386,7 +2586,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22 / 30</t>
+          <t>41 / 41</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2396,30 +2596,35 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>70476</v>
+        <v>70483</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ISA2 - N7A/B- ID</t>
+          <t>IH - M8A - ID</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7675</v>
+        <v>7676</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2429,12 +2634,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>41 / 41</t>
+          <t>31 / 31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2444,60 +2649,17 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>70483</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>IH - M8A - ID</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>7676</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Interacción humano-computadora</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>(1422) Agosto-setiembre 2024</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Matutino</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>31 / 31</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(6) HYFLEX</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>31</t>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07 08 24</t>
         </is>
       </c>
     </row>

--- a/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
+++ b/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>Número Materia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
+++ b/Leerplanillacupos/output_Insciptos ID y AN al 07 08 24.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -537,10 +541,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K2" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +592,8 @@
           <t>25</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K3" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K4" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="5">
@@ -696,10 +694,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K5" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +745,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K6" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +796,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K7" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="8">
@@ -855,10 +847,8 @@
           <t>33</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K8" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="9">
@@ -908,10 +898,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K9" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="10">
@@ -961,10 +949,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K10" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="11">
@@ -1014,10 +1000,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K11" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="12">
@@ -1067,10 +1051,8 @@
           <t>33</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K12" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="13">
@@ -1120,10 +1102,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K13" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="14">
@@ -1173,10 +1153,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K14" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="15">
@@ -1226,10 +1204,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K15" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="16">
@@ -1279,10 +1255,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K16" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="17">
@@ -1332,10 +1306,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K17" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="18">
@@ -1385,10 +1357,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K18" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="19">
@@ -1438,10 +1408,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K19" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="20">
@@ -1491,10 +1459,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K20" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="21">
@@ -1544,10 +1510,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K21" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="22">
@@ -1597,10 +1561,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K22" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="23">
@@ -1650,10 +1612,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K23" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="24">
@@ -1703,10 +1663,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K24" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="25">
@@ -1756,10 +1714,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K25" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="26">
@@ -1809,10 +1765,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K26" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="27">
@@ -1862,10 +1816,8 @@
           <t>42</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K27" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="28">
@@ -1915,10 +1867,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K28" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="29">
@@ -1968,10 +1918,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K29" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="30">
@@ -2021,10 +1969,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K30" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="31">
@@ -2074,10 +2020,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K31" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="32">
@@ -2127,10 +2071,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K32" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="33">
@@ -2180,10 +2122,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K33" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="34">
@@ -2233,10 +2173,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K34" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="35">
@@ -2286,10 +2224,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K35" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="36">
@@ -2339,10 +2275,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K36" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="37">
@@ -2392,10 +2326,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K37" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="38">
@@ -2445,10 +2377,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K38" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="39">
@@ -2498,10 +2428,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K39" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="40">
@@ -2551,10 +2479,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K40" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="41">
@@ -2604,10 +2530,8 @@
           <t>41</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K41" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
     <row r="42">
@@ -2657,10 +2581,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>07 08 24</t>
-        </is>
+      <c r="K42" s="2" t="n">
+        <v>45511</v>
       </c>
     </row>
   </sheetData>
